--- a/src/assets/Template Excel/Layout_Product.xlsx
+++ b/src/assets/Template Excel/Layout_Product.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TABLE SRI\NEW 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SRI Projek\SRI FE\Terbaru 23-11-2024\sri_monthly_planning_fe\src\assets\Template Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5343C0-E417-4849-8C94-16AA03756589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA88DAA-34ED-4F04-AE56-E794D6BF73E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4386B32B-3324-47E2-AD2E-204A2FA7D49D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{4386B32B-3324-47E2-AD2E-204A2FA7D49D}"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCT" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>PART_NUMBER</t>
   </si>
@@ -44,9 +42,6 @@
     <t>ITEM_CURING</t>
   </si>
   <si>
-    <t>PATTERN_ID</t>
-  </si>
-  <si>
     <t>SIZE_ID</t>
   </si>
   <si>
@@ -81,6 +76,12 @@
   </si>
   <si>
     <t>LOWER_CONSTANT</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>PATTERN_NAME</t>
   </si>
 </sst>
 </file>
@@ -151,13 +152,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -177,9 +181,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -217,7 +221,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -323,7 +327,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -465,7 +469,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -473,77 +477,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E94D3C14-DD45-4969-8C25-2B523B41438A}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="H11:N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -559,8 +566,9 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -576,8 +584,9 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P3" s="3"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -593,8 +602,9 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -610,8 +620,9 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -627,8 +638,9 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -644,8 +656,9 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -661,8 +674,9 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -678,6 +692,7 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/assets/Template Excel/Layout_Product.xlsx
+++ b/src/assets/Template Excel/Layout_Product.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SRI Projek\SRI FE\Terbaru 23-11-2024\sri_monthly_planning_fe\src\assets\Template Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA88DAA-34ED-4F04-AE56-E794D6BF73E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461E6EA7-2BE8-4382-ADD5-4045E9ED8CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{4386B32B-3324-47E2-AD2E-204A2FA7D49D}"/>
+    <workbookView xWindow="4330" yWindow="2990" windowWidth="14400" windowHeight="7810" xr2:uid="{4386B32B-3324-47E2-AD2E-204A2FA7D49D}"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCT" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>PART_NUMBER</t>
   </si>
@@ -42,12 +42,6 @@
     <t>ITEM_CURING</t>
   </si>
   <si>
-    <t>SIZE_ID</t>
-  </si>
-  <si>
-    <t>PRODUCT_TYPE_ID</t>
-  </si>
-  <si>
     <t>DESCRIPTION</t>
   </si>
   <si>
@@ -82,6 +76,9 @@
   </si>
   <si>
     <t>PATTERN_NAME</t>
+  </si>
+  <si>
+    <t>SIZE</t>
   </si>
 </sst>
 </file>
@@ -477,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E94D3C14-DD45-4969-8C25-2B523B41438A}">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="H11:N11"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -489,20 +486,19 @@
     <col min="3" max="3" width="16.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.90625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -511,46 +507,43 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -566,9 +559,8 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -584,9 +576,8 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -602,9 +593,8 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -620,9 +610,8 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -638,9 +627,8 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -656,9 +644,8 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -674,9 +661,8 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -692,7 +678,6 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
